--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1632.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1632.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.084956029816231</v>
+        <v>0.9811958074569702</v>
       </c>
       <c r="B1">
-        <v>2.856001666785192</v>
+        <v>3.322385549545288</v>
       </c>
       <c r="C1">
-        <v>3.918692929155502</v>
+        <v>4.037312507629395</v>
       </c>
       <c r="D1">
-        <v>2.37991748711595</v>
+        <v>3.067291498184204</v>
       </c>
       <c r="E1">
-        <v>1.139337763857505</v>
+        <v>1.328108668327332</v>
       </c>
     </row>
   </sheetData>
